--- a/その他データ/演歌歌手__公園名_歌手名_定価_年齢.xlsx
+++ b/その他データ/演歌歌手__公園名_歌手名_定価_年齢.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aki/ticket_tenbai/その他データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816DDA62-0375-8048-AEE2-EAD25B433C0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6DF81B-45AE-6E43-9A0F-CFD25B66AA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{9A00A6FA-3641-7A46-8DF2-BAFA2585359C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="374">
   <si>
     <t>name</t>
   </si>
@@ -69,23 +69,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>氷川きよし特別公演新歌舞伎座5/23 夜S席1階8~10列センターブロック1 ~2枚</t>
-  </si>
-  <si>
-    <t>★2019年7月13日(土曜日)に大阪である大阪新歌舞伎座開場60周年記念市川由紀乃コンサートのチケット送料込み!</t>
-  </si>
-  <si>
     <t>市川由紀乃</t>
-  </si>
-  <si>
-    <t>席指定がなかったので</t>
-    <rPh sb="0" eb="3">
-      <t>セキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ごごウタ NHK みんなの広場 ふれあいホール 5/24 (金) 1枚2枚様 入場整理券 小堺一機,塚原愛,おかゆ,門倉有希,北島兄弟,神野美伽,ほか</t>
   </si>
   <si>
     <t>小堺一機,塚原愛,おかゆ,門倉有希,北島兄弟,神野美伽</t>
@@ -133,9 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入場券「八代亜紀コンサート2019」ゲスト北川大介2019年6月14日夜の部津田沼文化ホール</t>
-  </si>
-  <si>
     <t>八代亜紀</t>
     <rPh sb="0" eb="4">
       <t>ヤシロ</t>
@@ -150,9 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>松平健川中美幸特別公演6月8日土曜日11時開演新歌舞伎座1階18列2枚ペア</t>
-  </si>
-  <si>
     <t>氷川きよし 特別公演 新歌舞伎座</t>
   </si>
   <si>
@@ -186,63 +164,15 @@
     <t>氷川きよし特別公演 新歌舞伎座 5/25(昼)S席1枚</t>
   </si>
   <si>
-    <t>大月みやこ歌謡ショー チケット2枚 大月みやこ歌謡ショー チケット2枚</t>
-  </si>
-  <si>
     <t>♪氷川きよし特別公演新歌舞伎座♪5/23 昼 1階S席 ペア 定価以下</t>
   </si>
   <si>
-    <t>☆ 島津亜矢コンサート 5月25日(土) 1階10列 ☆</t>
-  </si>
-  <si>
-    <t>【観覧同伴者募集】 5月20日(月) 「美空ひばり没後30年 市川由紀乃と三山ひろしが歌う名曲選公開収録」</t>
-  </si>
-  <si>
-    <t>福田こうへい ★7月10日(水)★ 神奈川(相模女子大学グリーンホール)SS席 2枚連番 コンサート チケット ペア</t>
-  </si>
-  <si>
     <t>【京都】市川由紀乃コンサート★割引予約券6月13日</t>
   </si>
   <si>
-    <t>天童よしみコンサートチケット5月18日16:30開演</t>
-  </si>
-  <si>
-    <t>【チケット】5/24 雪月花 新演歌三姉妹 S席 1枚</t>
-  </si>
-  <si>
-    <t>竹島宏~ムード歌謡の世界へvol.3~2019.6.1名古屋今池ガスホール(1枚)14:00開演</t>
-  </si>
-  <si>
-    <t>中澤卓也 ミニライブ 繋ぐウタゴコロ 6月3日 高崎シティギャラリー コアホール 1枚</t>
-  </si>
-  <si>
-    <t>純烈コンサート・梅田特別優待はがき</t>
-  </si>
-  <si>
-    <t>♪五木ひろし コンサート 2019梅田芸術劇場メインホール6月21日金14時~または夜18時~♪新品</t>
-  </si>
-  <si>
-    <t>[新品] 森昌子 祝 還暦コンサート 2019/5/28 チケット2枚セット メール便</t>
-  </si>
-  <si>
-    <t>6月3日 6月4日 浅草公会堂 梅沢富美男&amp;研ナオコ特別講演 7000円→3000円になる特別割引ご優待状 6/3 6/4</t>
-  </si>
-  <si>
-    <t>山内恵介さんの山形公演のチケットです。</t>
-  </si>
-  <si>
-    <t>竹島宏 ~June Dream~ 京都劇場 6/23 15:45 連番ペアチケット</t>
-  </si>
-  <si>
-    <t>天童よしみ コンサート サンドーム福井 5/19(日) 16時30分</t>
-  </si>
-  <si>
     <t>中澤卓也コンサート故郷から全国へ・追加公演・感謝を込めて特別バージョン宣伝用チラシ50枚セット</t>
   </si>
   <si>
-    <t>☆送料無料☆ 6/22 11時開演 新歌舞伎座 松平健 川中美幸 中村玉緒 ★ペアチケット★</t>
-  </si>
-  <si>
     <t>氷川きよし新歌舞伎座特別公演5/22夜S席2枚定価以下即決</t>
   </si>
   <si>
@@ -252,12 +182,6 @@
     <t>♪氷川きよし特別公演新歌舞伎座♪5/23 昼 1階S席 1~2枚 定価以下</t>
   </si>
   <si>
-    <t>4000円引■千穐楽■氷川きよし特別講演■ペア料金■送料込み</t>
-  </si>
-  <si>
-    <t>市川由紀乃丘みどり 杜このみ 雪・月・花~新演歌三姉妹~ 6月5日(水)アクトシティ浜松</t>
-  </si>
-  <si>
     <t>氷川きよし特別公演新歌舞伎座5月24日昼1階5列目良席1枚 送料無料</t>
   </si>
   <si>
@@ -279,34 +203,16 @@
     <t>純烈~温泉ライブin大江戸温泉19:00</t>
   </si>
   <si>
-    <t>福田こうへいコンサートツアー2019(福井)ご招待券4枚セット</t>
-  </si>
-  <si>
-    <t>♪市川由紀乃コンサート舟木一夫コンサートロームシアター京都優待券</t>
-  </si>
-  <si>
     <t>◇格安S席1000円◇氷川きよし1階16列◇5/25(夜)新歌舞伎座 1枚</t>
   </si>
   <si>
     <t>氷川きよし特別公演新歌舞伎座5月26日(日)昼の部S席6列1枚</t>
   </si>
   <si>
-    <t>★杉良太郎新歌舞伎座7/19 1階席5列1枚★</t>
-  </si>
-  <si>
-    <t>千秋楽ペア料金■\5000円引■氷川きよし特別公演■送料込み■大阪新歌舞伎座</t>
-  </si>
-  <si>
-    <t>★♪八代亜紀コンサート2019★6/14(金)★習志野文化ホール★ゲスト/北川大介★夜の部★ペアご招待券★送料62円~♪★</t>
-  </si>
-  <si>
     <t>5月27日(月) 氷川きよし特別公演千秋楽 B席1~2枚</t>
   </si>
   <si>
     <t>西武園ゆうえんち入園ご招待券2枚セット9/30まで</t>
-  </si>
-  <si>
-    <t>5/30(木)福田こうへいコンサートツアー 座席指定引換券 武蔵野市民文化会館</t>
   </si>
   <si>
     <t>氷川きよし特別公演♪新歌舞伎座千秋楽5/27(月)S席1階18列送料込み1枚昼</t>
@@ -1053,12 +959,778 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>参考サイト　</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照日時</t>
+    <rPh sb="0" eb="4">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷川きよし特別公演新歌舞伎座5/23 夜S席1階8~10列センターブロック1 ~2枚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://kansai.pia.co.jp/news/stage/2019-05/hikawakiyoshi.html</t>
+  </si>
+  <si>
+    <t>松平健川中美幸特別公演6月8日土曜日11時開演新歌舞伎座1階18列2枚ペア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>席指定がなかったのでS席のものを採用</t>
+    <rPh sb="0" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>セキノモ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごごウタ NHK みんなの広場 ふれあいホール 5/24 (金) 1枚2枚様 入場整理券 小堺一機,塚原愛,おかゆ,門倉有希,北島兄弟,神野美伽,ほか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://pid.nhk.or.jp/event/PPG0334172/index.html</t>
+  </si>
+  <si>
+    <t>https://kawanaka-miyuki.jp/%E5%85%88%E8%A1%8C%E4%BA%88%E7%B4%84%E3%81%AE%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B-%E6%96%B0%E6%AD%8C%E8%88%9E%E4%BC%8E%E5%BA%A7%E9%96%8B%E5%A0%B460%E5%91%A8%E5%B9%B4%E8%A8%98%E5%BF%B5-%E6%9D%BE/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019年7月13日(土曜日)に大阪である大阪新歌舞伎座開場60周年記念市川由紀乃コンサートのチケット送料込み!</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stage.corich.jp/stage/100045</t>
+  </si>
+  <si>
+    <t>入場券「八代亜紀コンサート2019」ゲスト北川大介2019年6月14日夜の部津田沼文化ホール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.bellworldmusic.com/20190614.html</t>
+  </si>
+  <si>
+    <t>SS席</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">セキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.morimasako.jp/category/concert</t>
+  </si>
+  <si>
+    <t>氷川きよし</t>
+  </si>
+  <si>
+    <t>S席</t>
+  </si>
+  <si>
+    <t>http://www.bellworldmusic.com/20190528.html</t>
+  </si>
+  <si>
+    <t>SS席</t>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://rohmtheatrekyoto.jp/event/54810/</t>
+  </si>
+  <si>
+    <t>S席</t>
+    <rPh sb="1" eb="2">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大月みやこ歌謡ショー チケット2枚 大月みやこ歌謡ショー チケット2枚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明　保留</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 島津亜矢コンサート 5月25日(土) 1階10列 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この日時の公演が見つからない</t>
+    <rPh sb="5" eb="7">
+      <t>コウエn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミツカラナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【観覧同伴者募集】 5月20日(月) 「美空ひばり没後30年 市川由紀乃と三山ひろしが歌う名曲選公開収録」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.shimazu-aya-koenkai.com/schedule/</t>
+  </si>
+  <si>
+    <t>番組観覧なので無料</t>
+    <rPh sb="0" eb="4">
+      <t>バングミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">福田こうへい </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7月10日(水)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 神奈川(相模女子大学グリーンホール)SS席 2枚連番 コンサート チケット ペア</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.bellworldmusic.com/201907.html</t>
+  </si>
+  <si>
+    <t>福田こうへい</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島津亜矢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://rohmtheatrekyoto.jp/event/54856/</t>
+  </si>
+  <si>
+    <t>市川由紀乃</t>
+    <rPh sb="0" eb="1">
+      <t>イチカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大月みやこ</t>
+  </si>
+  <si>
+    <t>天童よしみコンサートチケット5月18日16:30開演</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【チケット】5/24 雪月花 新演歌三姉妹 S席 1枚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.shinkin.co.jp/fukushin/nenkin/special.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天童よしみ </t>
+    <rPh sb="0" eb="2">
+      <t>テンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行口座の特典なので無料</t>
+    <rPh sb="0" eb="4">
+      <t>ギンコウコウザノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.okamidori.com/news/?news_id=378</t>
+  </si>
+  <si>
+    <t>竹島宏~ムード歌謡の世界へvol.3~2019.6.1名古屋今池ガスホール(1枚)14:00開演</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">竹島宏 </t>
+    <rPh sb="0" eb="3">
+      <t>タケシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット画像より</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中澤卓也 ミニライブ 繋ぐウタゴコロ 6月3日 高崎シティギャラリー コアホール 1枚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.takasaki-foundation.or.jp/gallery/moyoosi-old.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>純烈コンサート・梅田特別優待はがき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://junretsu-official.com/schedule.php</t>
+  </si>
+  <si>
+    <t>純烈</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンレテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢はリーダーの年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♪五木ひろし コンサート 2019梅田芸術劇場メインホール6月21日金14時~または夜18時~♪新品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五木ひろし</t>
+    <rPh sb="0" eb="2">
+      <t>イツキヒロセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.umegei.com/system/schedules/onedays/2019-06-21</t>
+  </si>
+  <si>
+    <t>[新品] 森昌子 祝 還暦コンサート 2019/5/28 チケット2枚セット メール便</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://yumeg.com/shopdetail/000000001780/</t>
+  </si>
+  <si>
+    <t>6月3日 6月4日 浅草公会堂 梅沢富美男&amp;研ナオコ特別講演 7000円→3000円になる特別割引ご優待状 6/3 6/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://t.pia.jp/pia/ticketInformation.do?eventCd=1907768&amp;rlsCd=001</t>
+  </si>
+  <si>
+    <t>梅沢富美男</t>
+    <rPh sb="0" eb="5">
+      <t>ウメザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山内恵介さんの山形公演のチケットです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケットストリートでの公演</t>
+    <rPh sb="11" eb="13">
+      <t>コウエn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ticket.st/artists/hikawa-kiyoshi-tickets/event-277689</t>
+  </si>
+  <si>
+    <t>https://ticket.st/artists/yamauchi-keisuke-tickets/event-290522</t>
+  </si>
+  <si>
+    <t>公演の正式名称</t>
+    <rPh sb="0" eb="2">
+      <t>コウエn</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>セイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷川きよし 新歌舞伎座開場60周年記念 氷川きよし 特別公演</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://yamauchikeisuke.com/news/detail/1416</t>
+  </si>
+  <si>
+    <t>竹島宏 ~June Dream~ 京都劇場 6/23 15:45 連番ペアチケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-gekijo.com/performance/2019/concert_takeshima_hiroshi.html</t>
+  </si>
+  <si>
+    <t>天童よしみ コンサート サンドーム福井 5/19(日) 16時30分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>送料無料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6/22 11時開演 新歌舞伎座 松平健 川中美幸 中村玉緒 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ペアチケット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stage.corich.jp/stage/99316</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松平健</t>
+    <rPh sb="0" eb="1">
+      <t>マツダイラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チラシは除外</t>
+    <rPh sb="4" eb="6">
+      <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S席</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャリティなので除外</t>
+    <rPh sb="8" eb="10">
+      <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4000円引■千穐楽■氷川きよし特別講演■ペア料金■送料込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.meijiza.co.jp/lineup/2018/10/</t>
+  </si>
+  <si>
+    <t>予約券なので落とす</t>
+    <rPh sb="0" eb="3">
+      <t>ヨヤクケンナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨヤクケンナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オトス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福田こうへいコンサートツアー2019(福井)ご招待券4枚セット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山内惠介</t>
+    <rPh sb="0" eb="4">
+      <t>ヤマウティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">竹島宏 </t>
+    <rPh sb="0" eb="1">
+      <t>タケシマヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中澤卓也</t>
+    <rPh sb="0" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥山えいじ</t>
+    <rPh sb="0" eb="2">
+      <t>オクヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷川きよし</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市川由紀乃丘みどり 杜このみ 雪・月・花~新演歌三姉妹~ 6月5日(水)アクトシティ浜松</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.okamidori.com/news/?news_id=474</t>
+  </si>
+  <si>
+    <t>丘みどり</t>
+    <rPh sb="0" eb="1">
+      <t>オカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://fukudakohei.info/tour</t>
+  </si>
+  <si>
+    <t>♪市川由紀乃コンサート舟木一夫コンサートロームシアター京都優待券</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://rohmtheatrekyoto.jp/event/54999/</t>
+  </si>
+  <si>
+    <t>石川さゆり</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワサユル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>杉良太郎新歌舞伎座7/19 1階席5列1枚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1階席</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://t.pia.jp/pia/ticketInformation.do?eventCd=1905013&amp;rlsCd=001</t>
+  </si>
+  <si>
+    <t>千秋楽ペア料金■\5000円引■氷川きよし特別公演■送料込み■大阪新歌舞伎座</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>♪八代亜紀コンサート2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6/14(金)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>習志野文化ホール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ゲスト/北川大介</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>夜の部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ペアご招待券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>送料62円~♪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落とす</t>
+    <rPh sb="0" eb="1">
+      <t>オトス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/30(木)福田こうへいコンサートツアー 座席指定引換券 武蔵野市民文化会館</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://t.pia.jp/pia/ticketInformation.do?eventCd=1853705&amp;rlsCd=001</t>
+  </si>
+  <si>
+    <t>福田こうへい</t>
+    <rPh sb="0" eb="2">
+      <t>フクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1104,6 +1776,31 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1137,12 +1834,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,8 +1856,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1470,15 +2186,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3847FA63-C770-994E-A31B-2581B9566724}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1494,10 +2215,22 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="24">
+      <c r="F1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1511,13 +2244,25 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="24">
+      <c r="F2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="7">
+        <v>43728</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>12000</v>
@@ -1526,15 +2271,21 @@
         <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24">
+        <v>279</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1543,15 +2294,21 @@
         <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>13000</v>
@@ -1560,12 +2317,18 @@
         <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -1576,11 +2339,19 @@
       <c r="D6" s="3">
         <v>41</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="24">
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1591,11 +2362,19 @@
       <c r="D7" s="3">
         <v>41</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="24">
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1606,14 +2385,22 @@
       <c r="D8" s="3">
         <v>41</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="24">
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>6500</v>
@@ -1621,14 +2408,22 @@
       <c r="D9" s="3">
         <v>69</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="24">
+      <c r="E9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24">
       <c r="A10" s="4" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>6800</v>
@@ -1637,10 +2432,16 @@
         <v>60</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="24">
+      <c r="F10" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>6</v>
@@ -1651,26 +2452,42 @@
       <c r="D11" s="3">
         <v>41</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="24">
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24">
       <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="8">
         <v>16000</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="8">
         <v>41</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="24">
+      <c r="E12" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" s="9">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -1681,11 +2498,19 @@
       <c r="D13" s="3">
         <v>41</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="24">
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>6</v>
@@ -1696,11 +2521,19 @@
       <c r="D14" s="3">
         <v>41</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="24">
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>6</v>
@@ -1711,11 +2544,19 @@
       <c r="D15" s="3">
         <v>41</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="24">
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>6</v>
@@ -1726,14 +2567,22 @@
       <c r="D16" s="3">
         <v>41</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="24">
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24">
       <c r="A17" s="4" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="C17" s="3">
         <v>6500</v>
@@ -1741,59 +2590,91 @@
       <c r="D17" s="1">
         <v>42</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="24">
+      <c r="E17" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24">
       <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="8">
         <v>16000</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="8">
         <v>41</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="24">
+      <c r="E18" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G18" s="9">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24">
       <c r="A19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="8">
         <v>16000</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="8">
         <v>41</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="24">
+      <c r="E19" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="9">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24">
       <c r="A20" s="4" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="C20" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="D20" s="1">
         <v>42</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="24">
+      <c r="E20" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" s="9">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24">
       <c r="A21" s="4" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3">
         <v>6800</v>
@@ -1802,532 +2683,1094 @@
         <v>60</v>
       </c>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="24">
+      <c r="F21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="9">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24">
       <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="24">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24">
       <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="24">
+      <c r="E23" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24">
       <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="24">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>41</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G24" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24">
       <c r="A25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="24">
+        <v>297</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24">
       <c r="A26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="24">
+        <v>299</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24">
       <c r="A27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D27" s="3">
+        <v>42</v>
+      </c>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="24">
+      <c r="F27" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G27" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24">
       <c r="A28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>43</v>
+      </c>
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="24">
+      <c r="F28" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24">
       <c r="A29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="24">
+        <v>309</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="24">
       <c r="A30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D30" s="3">
+        <v>43</v>
+      </c>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="24">
+      <c r="F30" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G30" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24">
       <c r="A31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="24">
+        <v>315</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D31" s="3">
+        <v>41</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G31" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24">
       <c r="A32" s="4" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="D32" s="3">
+        <v>23</v>
+      </c>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="24">
+      <c r="F32" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="24">
       <c r="A33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="24">
+        <v>320</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="D33" s="3">
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="24">
       <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+        <v>324</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>71</v>
+      </c>
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="24">
+      <c r="F34" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G34" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+        <v>327</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="D35" s="1">
+        <v>60</v>
+      </c>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="24">
+      <c r="F35" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+        <v>329</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7000</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="24">
+      <c r="F36" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+        <v>332</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D37" s="3">
+        <v>36</v>
+      </c>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="24">
+      <c r="F37" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" s="7">
+        <v>43728</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+        <v>339</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>41</v>
+      </c>
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="24">
+      <c r="F38" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G38" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="24">
+        <v>341</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>64</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="24">
+      <c r="E40" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="24">
+        <v>342</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="D41" s="3">
+        <v>65</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="24">
+        <v>28</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>41</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G42" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="24">
       <c r="A43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="24">
+        <v>29</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="24">
       <c r="A44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="24">
+        <v>30</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>41</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G44" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="24">
       <c r="A45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="24">
+        <v>349</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D45" s="3">
+        <v>41</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="24">
       <c r="A46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D46" s="3">
+        <v>35</v>
+      </c>
       <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="24">
+      <c r="F46" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="24">
       <c r="A47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="24">
+        <v>31</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D47" s="3">
+        <v>41</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="24">
       <c r="A48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="24">
+        <v>32</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>41</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="24">
       <c r="A49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="24">
+        <v>33</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>41</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G49" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="24">
       <c r="A50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="24">
+        <v>34</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>41</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G50" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="24">
       <c r="A51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="24">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>41</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="24">
       <c r="A52" s="4" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="24">
+      <c r="E52" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="24">
       <c r="A53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3">
+        <v>2160</v>
+      </c>
+      <c r="D53" s="3">
+        <v>44</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="24">
+      <c r="A54" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G54" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="24">
+      <c r="A55" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C55" s="3">
+        <v>7500</v>
+      </c>
+      <c r="D55" s="3">
         <v>61</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="24">
-      <c r="A54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="24">
-      <c r="A55" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="24">
+      <c r="F55" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G55" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="24">
       <c r="A56" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="24">
+        <v>38</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D56" s="3">
+        <v>41</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="24">
       <c r="A57" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="24">
+        <v>39</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D57" s="3">
+        <v>41</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G57" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="24">
       <c r="A58" s="4" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="24">
+      <c r="C58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>75</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G58" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="24">
       <c r="A59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="24">
+        <v>368</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>41</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G59" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="24">
       <c r="A60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="24">
+        <v>369</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D60" s="3">
+        <v>69</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G60" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="24">
       <c r="A61" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="24">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>41</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G61" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="24">
       <c r="A62" s="4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="24">
+      <c r="E62" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="24">
       <c r="A63" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D63" s="3">
+        <v>41</v>
+      </c>
       <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="24">
+      <c r="F63" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G63" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="24">
       <c r="A64" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" ht="24">
+        <v>42</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>41</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G64" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="24">
       <c r="A65" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="24">
+    <row r="66" spans="1:7" ht="24">
       <c r="A66" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="24">
+    <row r="67" spans="1:7" ht="24">
       <c r="A67" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="24">
+        <v>45</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D67" s="3">
+        <v>41</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G67" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="24">
       <c r="A68" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="24">
+    <row r="69" spans="1:7" ht="24">
       <c r="A69" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="24">
+    <row r="70" spans="1:7" ht="24">
       <c r="A70" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" ht="24">
+    <row r="71" spans="1:7" ht="24">
       <c r="A71" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="24">
+    <row r="72" spans="1:7" ht="24">
       <c r="A72" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="24">
+    <row r="73" spans="1:7" ht="24">
       <c r="A73" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="24">
+        <v>51</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D73" s="3">
+        <v>41</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G73" s="7">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="24">
       <c r="A74" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" ht="24">
+    <row r="75" spans="1:7" ht="24">
       <c r="A75" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="24">
+    <row r="76" spans="1:7" ht="24">
       <c r="A76" s="4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="24">
+    <row r="77" spans="1:7" ht="24">
       <c r="A77" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="24">
+    <row r="78" spans="1:7" ht="24">
       <c r="A78" s="4" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" ht="24">
+    <row r="79" spans="1:7" ht="24">
       <c r="A79" s="4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="24">
+    <row r="80" spans="1:7" ht="24">
       <c r="A80" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2336,7 +3779,7 @@
     </row>
     <row r="81" spans="1:5" ht="24">
       <c r="A81" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2345,7 +3788,7 @@
     </row>
     <row r="82" spans="1:5" ht="24">
       <c r="A82" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2354,7 +3797,7 @@
     </row>
     <row r="83" spans="1:5" ht="24">
       <c r="A83" s="4" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2363,7 +3806,7 @@
     </row>
     <row r="84" spans="1:5" ht="24">
       <c r="A84" s="4" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2372,7 +3815,7 @@
     </row>
     <row r="85" spans="1:5" ht="24">
       <c r="A85" s="4" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2381,7 +3824,7 @@
     </row>
     <row r="86" spans="1:5" ht="24">
       <c r="A86" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2390,7 +3833,7 @@
     </row>
     <row r="87" spans="1:5" ht="24">
       <c r="A87" s="4" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2399,7 +3842,7 @@
     </row>
     <row r="88" spans="1:5" ht="24">
       <c r="A88" s="4" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2408,7 +3851,7 @@
     </row>
     <row r="89" spans="1:5" ht="24">
       <c r="A89" s="4" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2417,7 +3860,7 @@
     </row>
     <row r="90" spans="1:5" ht="24">
       <c r="A90" s="4" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2426,7 +3869,7 @@
     </row>
     <row r="91" spans="1:5" ht="24">
       <c r="A91" s="4" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2435,7 +3878,7 @@
     </row>
     <row r="92" spans="1:5" ht="24">
       <c r="A92" s="4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2444,7 +3887,7 @@
     </row>
     <row r="93" spans="1:5" ht="24">
       <c r="A93" s="4" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2453,7 +3896,7 @@
     </row>
     <row r="94" spans="1:5" ht="24">
       <c r="A94" s="4" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2462,7 +3905,7 @@
     </row>
     <row r="95" spans="1:5" ht="24">
       <c r="A95" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2471,7 +3914,7 @@
     </row>
     <row r="96" spans="1:5" ht="24">
       <c r="A96" s="4" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2480,7 +3923,7 @@
     </row>
     <row r="97" spans="1:5" ht="24">
       <c r="A97" s="4" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2489,7 +3932,7 @@
     </row>
     <row r="98" spans="1:5" ht="24">
       <c r="A98" s="4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2498,7 +3941,7 @@
     </row>
     <row r="99" spans="1:5" ht="24">
       <c r="A99" s="4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2507,7 +3950,7 @@
     </row>
     <row r="100" spans="1:5" ht="24">
       <c r="A100" s="4" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2516,7 +3959,7 @@
     </row>
     <row r="101" spans="1:5" ht="24">
       <c r="A101" s="4" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2525,7 +3968,7 @@
     </row>
     <row r="102" spans="1:5" ht="24">
       <c r="A102" s="4" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2534,7 +3977,7 @@
     </row>
     <row r="103" spans="1:5" ht="24">
       <c r="A103" s="4" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2543,7 +3986,7 @@
     </row>
     <row r="104" spans="1:5" ht="24">
       <c r="A104" s="4" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2552,7 +3995,7 @@
     </row>
     <row r="105" spans="1:5" ht="24">
       <c r="A105" s="4" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2561,7 +4004,7 @@
     </row>
     <row r="106" spans="1:5" ht="24">
       <c r="A106" s="4" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2570,7 +4013,7 @@
     </row>
     <row r="107" spans="1:5" ht="24">
       <c r="A107" s="4" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2579,7 +4022,7 @@
     </row>
     <row r="108" spans="1:5" ht="24">
       <c r="A108" s="4" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2588,7 +4031,7 @@
     </row>
     <row r="109" spans="1:5" ht="24">
       <c r="A109" s="4" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2597,7 +4040,7 @@
     </row>
     <row r="110" spans="1:5" ht="24">
       <c r="A110" s="4" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2606,7 +4049,7 @@
     </row>
     <row r="111" spans="1:5" ht="24">
       <c r="A111" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2615,7 +4058,7 @@
     </row>
     <row r="112" spans="1:5" ht="24">
       <c r="A112" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2624,7 +4067,7 @@
     </row>
     <row r="113" spans="1:5" ht="24">
       <c r="A113" s="4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2633,7 +4076,7 @@
     </row>
     <row r="114" spans="1:5" ht="24">
       <c r="A114" s="4" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2642,7 +4085,7 @@
     </row>
     <row r="115" spans="1:5" ht="24">
       <c r="A115" s="4" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2651,7 +4094,7 @@
     </row>
     <row r="116" spans="1:5" ht="24">
       <c r="A116" s="4" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2660,7 +4103,7 @@
     </row>
     <row r="117" spans="1:5" ht="24">
       <c r="A117" s="4" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2669,7 +4112,7 @@
     </row>
     <row r="118" spans="1:5" ht="24">
       <c r="A118" s="4" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2678,7 +4121,7 @@
     </row>
     <row r="119" spans="1:5" ht="24">
       <c r="A119" s="4" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2687,7 +4130,7 @@
     </row>
     <row r="120" spans="1:5" ht="24">
       <c r="A120" s="4" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2696,7 +4139,7 @@
     </row>
     <row r="121" spans="1:5" ht="24">
       <c r="A121" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2705,7 +4148,7 @@
     </row>
     <row r="122" spans="1:5" ht="24">
       <c r="A122" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2714,7 +4157,7 @@
     </row>
     <row r="123" spans="1:5" ht="24">
       <c r="A123" s="4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2723,7 +4166,7 @@
     </row>
     <row r="124" spans="1:5" ht="24">
       <c r="A124" s="4" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2732,7 +4175,7 @@
     </row>
     <row r="125" spans="1:5" ht="24">
       <c r="A125" s="4" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2741,7 +4184,7 @@
     </row>
     <row r="126" spans="1:5" ht="24">
       <c r="A126" s="4" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2750,7 +4193,7 @@
     </row>
     <row r="127" spans="1:5" ht="24">
       <c r="A127" s="4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2759,7 +4202,7 @@
     </row>
     <row r="128" spans="1:5" ht="24">
       <c r="A128" s="4" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2768,7 +4211,7 @@
     </row>
     <row r="129" spans="1:5" ht="24">
       <c r="A129" s="4" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2777,7 +4220,7 @@
     </row>
     <row r="130" spans="1:5" ht="24">
       <c r="A130" s="4" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2786,7 +4229,7 @@
     </row>
     <row r="131" spans="1:5" ht="24">
       <c r="A131" s="4" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2795,7 +4238,7 @@
     </row>
     <row r="132" spans="1:5" ht="24">
       <c r="A132" s="4" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2804,7 +4247,7 @@
     </row>
     <row r="133" spans="1:5" ht="24">
       <c r="A133" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2813,7 +4256,7 @@
     </row>
     <row r="134" spans="1:5" ht="24">
       <c r="A134" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2822,7 +4265,7 @@
     </row>
     <row r="135" spans="1:5" ht="24">
       <c r="A135" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2831,7 +4274,7 @@
     </row>
     <row r="136" spans="1:5" ht="24">
       <c r="A136" s="4" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2840,7 +4283,7 @@
     </row>
     <row r="137" spans="1:5" ht="24">
       <c r="A137" s="4" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2849,7 +4292,7 @@
     </row>
     <row r="138" spans="1:5" ht="24">
       <c r="A138" s="4" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2858,7 +4301,7 @@
     </row>
     <row r="139" spans="1:5" ht="24">
       <c r="A139" s="4" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2867,7 +4310,7 @@
     </row>
     <row r="140" spans="1:5" ht="24">
       <c r="A140" s="4" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2876,7 +4319,7 @@
     </row>
     <row r="141" spans="1:5" ht="24">
       <c r="A141" s="4" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2885,7 +4328,7 @@
     </row>
     <row r="142" spans="1:5" ht="24">
       <c r="A142" s="4" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2894,7 +4337,7 @@
     </row>
     <row r="143" spans="1:5" ht="24">
       <c r="A143" s="4" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2903,7 +4346,7 @@
     </row>
     <row r="144" spans="1:5" ht="24">
       <c r="A144" s="4" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2912,7 +4355,7 @@
     </row>
     <row r="145" spans="1:5" ht="24">
       <c r="A145" s="4" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2921,7 +4364,7 @@
     </row>
     <row r="146" spans="1:5" ht="24">
       <c r="A146" s="4" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2930,7 +4373,7 @@
     </row>
     <row r="147" spans="1:5" ht="24">
       <c r="A147" s="4" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2939,7 +4382,7 @@
     </row>
     <row r="148" spans="1:5" ht="24">
       <c r="A148" s="4" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2948,7 +4391,7 @@
     </row>
     <row r="149" spans="1:5" ht="24">
       <c r="A149" s="4" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2957,7 +4400,7 @@
     </row>
     <row r="150" spans="1:5" ht="24">
       <c r="A150" s="4" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2966,7 +4409,7 @@
     </row>
     <row r="151" spans="1:5" ht="24">
       <c r="A151" s="4" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2975,7 +4418,7 @@
     </row>
     <row r="152" spans="1:5" ht="24">
       <c r="A152" s="4" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2984,7 +4427,7 @@
     </row>
     <row r="153" spans="1:5" ht="24">
       <c r="A153" s="4" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2993,7 +4436,7 @@
     </row>
     <row r="154" spans="1:5" ht="24">
       <c r="A154" s="4" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3002,7 +4445,7 @@
     </row>
     <row r="155" spans="1:5" ht="24">
       <c r="A155" s="4" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3011,7 +4454,7 @@
     </row>
     <row r="156" spans="1:5" ht="24">
       <c r="A156" s="4" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3020,7 +4463,7 @@
     </row>
     <row r="157" spans="1:5" ht="24">
       <c r="A157" s="4" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3029,7 +4472,7 @@
     </row>
     <row r="158" spans="1:5" ht="24">
       <c r="A158" s="4" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3038,7 +4481,7 @@
     </row>
     <row r="159" spans="1:5" ht="24">
       <c r="A159" s="4" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3047,7 +4490,7 @@
     </row>
     <row r="160" spans="1:5" ht="24">
       <c r="A160" s="4" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3056,7 +4499,7 @@
     </row>
     <row r="161" spans="1:5" ht="24">
       <c r="A161" s="4" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3065,7 +4508,7 @@
     </row>
     <row r="162" spans="1:5" ht="24">
       <c r="A162" s="4" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3074,7 +4517,7 @@
     </row>
     <row r="163" spans="1:5" ht="24">
       <c r="A163" s="4" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3083,7 +4526,7 @@
     </row>
     <row r="164" spans="1:5" ht="24">
       <c r="A164" s="4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3092,7 +4535,7 @@
     </row>
     <row r="165" spans="1:5" ht="24">
       <c r="A165" s="4" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3101,7 +4544,7 @@
     </row>
     <row r="166" spans="1:5" ht="24">
       <c r="A166" s="4" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3110,7 +4553,7 @@
     </row>
     <row r="167" spans="1:5" ht="24">
       <c r="A167" s="4" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3119,7 +4562,7 @@
     </row>
     <row r="168" spans="1:5" ht="24">
       <c r="A168" s="4" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3128,7 +4571,7 @@
     </row>
     <row r="169" spans="1:5" ht="24">
       <c r="A169" s="4" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3137,7 +4580,7 @@
     </row>
     <row r="170" spans="1:5" ht="24">
       <c r="A170" s="4" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3146,7 +4589,7 @@
     </row>
     <row r="171" spans="1:5" ht="24">
       <c r="A171" s="4" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3155,7 +4598,7 @@
     </row>
     <row r="172" spans="1:5" ht="24">
       <c r="A172" s="4" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3164,7 +4607,7 @@
     </row>
     <row r="173" spans="1:5" ht="24">
       <c r="A173" s="4" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3173,7 +4616,7 @@
     </row>
     <row r="174" spans="1:5" ht="24">
       <c r="A174" s="4" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3182,7 +4625,7 @@
     </row>
     <row r="175" spans="1:5" ht="24">
       <c r="A175" s="4" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3191,7 +4634,7 @@
     </row>
     <row r="176" spans="1:5" ht="24">
       <c r="A176" s="4" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3200,7 +4643,7 @@
     </row>
     <row r="177" spans="1:5" ht="24">
       <c r="A177" s="4" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3209,7 +4652,7 @@
     </row>
     <row r="178" spans="1:5" ht="24">
       <c r="A178" s="4" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3218,7 +4661,7 @@
     </row>
     <row r="179" spans="1:5" ht="24">
       <c r="A179" s="4" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3227,7 +4670,7 @@
     </row>
     <row r="180" spans="1:5" ht="24">
       <c r="A180" s="4" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3236,7 +4679,7 @@
     </row>
     <row r="181" spans="1:5" ht="24">
       <c r="A181" s="4" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3245,7 +4688,7 @@
     </row>
     <row r="182" spans="1:5" ht="24">
       <c r="A182" s="4" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3254,7 +4697,7 @@
     </row>
     <row r="183" spans="1:5" ht="24">
       <c r="A183" s="4" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3263,7 +4706,7 @@
     </row>
     <row r="184" spans="1:5" ht="24">
       <c r="A184" s="4" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3272,7 +4715,7 @@
     </row>
     <row r="185" spans="1:5" ht="24">
       <c r="A185" s="4" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3281,7 +4724,7 @@
     </row>
     <row r="186" spans="1:5" ht="24">
       <c r="A186" s="4" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -3290,7 +4733,7 @@
     </row>
     <row r="187" spans="1:5" ht="24">
       <c r="A187" s="4" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -3299,7 +4742,7 @@
     </row>
     <row r="188" spans="1:5" ht="24">
       <c r="A188" s="4" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -3308,7 +4751,7 @@
     </row>
     <row r="189" spans="1:5" ht="24">
       <c r="A189" s="4" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3317,7 +4760,7 @@
     </row>
     <row r="190" spans="1:5" ht="24">
       <c r="A190" s="4" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3326,7 +4769,7 @@
     </row>
     <row r="191" spans="1:5" ht="24">
       <c r="A191" s="4" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3335,7 +4778,7 @@
     </row>
     <row r="192" spans="1:5" ht="24">
       <c r="A192" s="4" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3344,7 +4787,7 @@
     </row>
     <row r="193" spans="1:5" ht="24">
       <c r="A193" s="4" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3353,7 +4796,7 @@
     </row>
     <row r="194" spans="1:5" ht="24">
       <c r="A194" s="4" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3362,7 +4805,7 @@
     </row>
     <row r="195" spans="1:5" ht="24">
       <c r="A195" s="4" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -3371,7 +4814,7 @@
     </row>
     <row r="196" spans="1:5" ht="24">
       <c r="A196" s="4" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -3380,7 +4823,7 @@
     </row>
     <row r="197" spans="1:5" ht="24">
       <c r="A197" s="4" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -3389,7 +4832,7 @@
     </row>
     <row r="198" spans="1:5" ht="24">
       <c r="A198" s="4" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -3398,7 +4841,7 @@
     </row>
     <row r="199" spans="1:5" ht="24">
       <c r="A199" s="4" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -3407,7 +4850,7 @@
     </row>
     <row r="200" spans="1:5" ht="24">
       <c r="A200" s="4" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3416,7 +4859,7 @@
     </row>
     <row r="201" spans="1:5" ht="24">
       <c r="A201" s="4" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -3425,7 +4868,7 @@
     </row>
     <row r="202" spans="1:5" ht="24">
       <c r="A202" s="4" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3434,7 +4877,7 @@
     </row>
     <row r="203" spans="1:5" ht="24">
       <c r="A203" s="4" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3443,7 +4886,7 @@
     </row>
     <row r="204" spans="1:5" ht="24">
       <c r="A204" s="4" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3452,7 +4895,7 @@
     </row>
     <row r="205" spans="1:5" ht="24">
       <c r="A205" s="4" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3461,7 +4904,7 @@
     </row>
     <row r="206" spans="1:5" ht="24">
       <c r="A206" s="4" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3470,7 +4913,7 @@
     </row>
     <row r="207" spans="1:5" ht="24">
       <c r="A207" s="4" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3479,7 +4922,7 @@
     </row>
     <row r="208" spans="1:5" ht="24">
       <c r="A208" s="4" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3488,7 +4931,7 @@
     </row>
     <row r="209" spans="1:5" ht="24">
       <c r="A209" s="4" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3497,7 +4940,7 @@
     </row>
     <row r="210" spans="1:5" ht="24">
       <c r="A210" s="4" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3506,7 +4949,7 @@
     </row>
     <row r="211" spans="1:5" ht="24">
       <c r="A211" s="4" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3515,7 +4958,7 @@
     </row>
     <row r="212" spans="1:5" ht="24">
       <c r="A212" s="4" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3524,7 +4967,7 @@
     </row>
     <row r="213" spans="1:5" ht="24">
       <c r="A213" s="4" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3533,7 +4976,7 @@
     </row>
     <row r="214" spans="1:5" ht="24">
       <c r="A214" s="4" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3542,7 +4985,7 @@
     </row>
     <row r="215" spans="1:5" ht="24">
       <c r="A215" s="4" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3551,7 +4994,7 @@
     </row>
     <row r="216" spans="1:5" ht="24">
       <c r="A216" s="4" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3560,7 +5003,7 @@
     </row>
     <row r="217" spans="1:5" ht="24">
       <c r="A217" s="4" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3569,7 +5012,7 @@
     </row>
     <row r="218" spans="1:5" ht="24">
       <c r="A218" s="4" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3578,7 +5021,7 @@
     </row>
     <row r="219" spans="1:5" ht="24">
       <c r="A219" s="4" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3587,7 +5030,7 @@
     </row>
     <row r="220" spans="1:5" ht="24">
       <c r="A220" s="4" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3596,7 +5039,7 @@
     </row>
     <row r="221" spans="1:5" ht="24">
       <c r="A221" s="4" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3605,7 +5048,7 @@
     </row>
     <row r="222" spans="1:5" ht="24">
       <c r="A222" s="4" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3614,7 +5057,7 @@
     </row>
     <row r="223" spans="1:5" ht="24">
       <c r="A223" s="4" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -3623,7 +5066,7 @@
     </row>
     <row r="224" spans="1:5" ht="24">
       <c r="A224" s="4" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -3632,7 +5075,7 @@
     </row>
     <row r="225" spans="1:5" ht="24">
       <c r="A225" s="4" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -3641,7 +5084,7 @@
     </row>
     <row r="226" spans="1:5" ht="24">
       <c r="A226" s="4" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -3650,7 +5093,7 @@
     </row>
     <row r="227" spans="1:5" ht="24">
       <c r="A227" s="4" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -3659,7 +5102,7 @@
     </row>
     <row r="228" spans="1:5" ht="24">
       <c r="A228" s="4" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -3668,7 +5111,7 @@
     </row>
     <row r="229" spans="1:5" ht="24">
       <c r="A229" s="4" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -3677,7 +5120,7 @@
     </row>
     <row r="230" spans="1:5" ht="24">
       <c r="A230" s="4" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -3686,7 +5129,7 @@
     </row>
     <row r="231" spans="1:5" ht="24">
       <c r="A231" s="4" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -3695,7 +5138,7 @@
     </row>
     <row r="232" spans="1:5" ht="24">
       <c r="A232" s="4" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -3704,7 +5147,7 @@
     </row>
     <row r="233" spans="1:5" ht="24">
       <c r="A233" s="4" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -3713,7 +5156,7 @@
     </row>
     <row r="234" spans="1:5" ht="24">
       <c r="A234" s="4" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -3722,7 +5165,7 @@
     </row>
     <row r="235" spans="1:5" ht="24">
       <c r="A235" s="4" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3731,7 +5174,7 @@
     </row>
     <row r="236" spans="1:5" ht="24">
       <c r="A236" s="4" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -3740,7 +5183,7 @@
     </row>
     <row r="237" spans="1:5" ht="24">
       <c r="A237" s="4" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -3749,7 +5192,7 @@
     </row>
     <row r="238" spans="1:5" ht="24">
       <c r="A238" s="4" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -3758,7 +5201,7 @@
     </row>
     <row r="239" spans="1:5" ht="24">
       <c r="A239" s="4" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -3767,7 +5210,7 @@
     </row>
     <row r="240" spans="1:5" ht="24">
       <c r="A240" s="4" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -3776,7 +5219,7 @@
     </row>
     <row r="241" spans="1:5" ht="24">
       <c r="A241" s="4" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -3785,7 +5228,7 @@
     </row>
     <row r="242" spans="1:5" ht="24">
       <c r="A242" s="4" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -3794,7 +5237,7 @@
     </row>
     <row r="243" spans="1:5" ht="24">
       <c r="A243" s="4" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -3803,7 +5246,7 @@
     </row>
     <row r="244" spans="1:5" ht="24">
       <c r="A244" s="4" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -3812,7 +5255,7 @@
     </row>
     <row r="245" spans="1:5" ht="24">
       <c r="A245" s="4" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -3821,7 +5264,7 @@
     </row>
     <row r="246" spans="1:5" ht="24">
       <c r="A246" s="4" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -3830,7 +5273,7 @@
     </row>
     <row r="247" spans="1:5" ht="24">
       <c r="A247" s="4" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -3839,7 +5282,7 @@
     </row>
     <row r="248" spans="1:5" ht="24">
       <c r="A248" s="4" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -3848,7 +5291,7 @@
     </row>
     <row r="249" spans="1:5" ht="24">
       <c r="A249" s="4" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -3857,7 +5300,7 @@
     </row>
     <row r="250" spans="1:5" ht="24">
       <c r="A250" s="4" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -3866,7 +5309,7 @@
     </row>
     <row r="251" spans="1:5" ht="24">
       <c r="A251" s="4" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -3875,7 +5318,7 @@
     </row>
     <row r="252" spans="1:5" ht="24">
       <c r="A252" s="4" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -3884,7 +5327,7 @@
     </row>
     <row r="253" spans="1:5" ht="24">
       <c r="A253" s="4" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -3893,7 +5336,7 @@
     </row>
     <row r="254" spans="1:5" ht="24">
       <c r="A254" s="4" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -3902,7 +5345,7 @@
     </row>
     <row r="255" spans="1:5" ht="24">
       <c r="A255" s="4" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -3911,7 +5354,7 @@
     </row>
     <row r="256" spans="1:5" ht="24">
       <c r="A256" s="4" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -3920,7 +5363,7 @@
     </row>
     <row r="257" spans="1:5" ht="24">
       <c r="A257" s="4" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -3929,7 +5372,7 @@
     </row>
     <row r="258" spans="1:5" ht="24">
       <c r="A258" s="4" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -3938,7 +5381,7 @@
     </row>
     <row r="259" spans="1:5" ht="24">
       <c r="A259" s="4" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -3947,7 +5390,7 @@
     </row>
     <row r="260" spans="1:5" ht="24">
       <c r="A260" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -3956,7 +5399,7 @@
     </row>
     <row r="261" spans="1:5" ht="24">
       <c r="A261" s="4" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -3965,7 +5408,7 @@
     </row>
     <row r="262" spans="1:5" ht="24">
       <c r="A262" s="4" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -3974,7 +5417,7 @@
     </row>
     <row r="263" spans="1:5" ht="24">
       <c r="A263" s="4" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -3983,7 +5426,7 @@
     </row>
     <row r="264" spans="1:5" ht="24">
       <c r="A264" s="4" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -3992,7 +5435,7 @@
     </row>
     <row r="265" spans="1:5" ht="24">
       <c r="A265" s="4" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -4001,7 +5444,7 @@
     </row>
     <row r="266" spans="1:5" ht="24">
       <c r="A266" s="4" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -4010,7 +5453,7 @@
     </row>
     <row r="267" spans="1:5" ht="24">
       <c r="A267" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -4019,7 +5462,7 @@
     </row>
     <row r="268" spans="1:5" ht="24">
       <c r="A268" s="4" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -4028,7 +5471,7 @@
     </row>
     <row r="269" spans="1:5" ht="24">
       <c r="A269" s="4" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -4037,7 +5480,7 @@
     </row>
     <row r="270" spans="1:5" ht="24">
       <c r="A270" s="4" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -4046,7 +5489,7 @@
     </row>
     <row r="271" spans="1:5" ht="24">
       <c r="A271" s="4" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -4055,7 +5498,7 @@
     </row>
     <row r="272" spans="1:5" ht="24">
       <c r="A272" s="4" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -4064,7 +5507,7 @@
     </row>
     <row r="273" spans="1:5" ht="24">
       <c r="A273" s="4" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -4073,7 +5516,7 @@
     </row>
     <row r="274" spans="1:5" ht="24">
       <c r="A274" s="4" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -4082,7 +5525,7 @@
     </row>
     <row r="275" spans="1:5" ht="24">
       <c r="A275" s="4" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -4091,7 +5534,7 @@
     </row>
     <row r="276" spans="1:5" ht="24">
       <c r="A276" s="4" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -4100,7 +5543,7 @@
     </row>
     <row r="277" spans="1:5" ht="24">
       <c r="A277" s="4" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -4109,7 +5552,7 @@
     </row>
     <row r="278" spans="1:5" ht="24">
       <c r="A278" s="4" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -4118,7 +5561,7 @@
     </row>
     <row r="279" spans="1:5" ht="24">
       <c r="A279" s="4" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -4127,7 +5570,7 @@
     </row>
     <row r="280" spans="1:5" ht="24">
       <c r="A280" s="4" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -4136,7 +5579,7 @@
     </row>
     <row r="281" spans="1:5" ht="24">
       <c r="A281" s="4" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -4145,7 +5588,7 @@
     </row>
     <row r="282" spans="1:5" ht="24">
       <c r="A282" s="4" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -4154,7 +5597,7 @@
     </row>
     <row r="283" spans="1:5" ht="24">
       <c r="A283" s="4" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -4163,7 +5606,7 @@
     </row>
     <row r="284" spans="1:5" ht="24">
       <c r="A284" s="4" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -4172,7 +5615,7 @@
     </row>
     <row r="285" spans="1:5" ht="24">
       <c r="A285" s="4" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -4181,7 +5624,7 @@
     </row>
     <row r="286" spans="1:5" ht="24">
       <c r="A286" s="4" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -4190,7 +5633,7 @@
     </row>
     <row r="287" spans="1:5" ht="24">
       <c r="A287" s="4" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -4199,7 +5642,7 @@
     </row>
     <row r="288" spans="1:5" ht="24">
       <c r="A288" s="4" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -4208,7 +5651,7 @@
     </row>
     <row r="289" spans="1:5" ht="24">
       <c r="A289" s="4" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -4217,7 +5660,7 @@
     </row>
     <row r="290" spans="1:5" ht="24">
       <c r="A290" s="4" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -4226,6 +5669,68 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{14C62176-3274-F94C-A3AC-FA3754790F70}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{1FB2465C-CF97-2B43-86EE-228B5ADFC84C}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{55195C0C-A414-7046-8369-E24A2DD827D3}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{88BB3E80-5682-9343-A1A2-2965B12F9A5D}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{6B692C22-92BA-1C4D-B390-60FDA16EDA05}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{381D7DA2-C349-2143-9D29-2857EE944352}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{21C0D8B6-EE85-704D-B8A0-0AA7A274A878}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{4BFD10E5-0AD9-104A-858E-89B02263B029}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{0332AE8E-AA05-9B40-A33B-0AB06EF68F98}"/>
+    <hyperlink ref="F21" r:id="rId10" xr:uid="{63B50A95-9A14-1643-8EC5-D2B04C1EFB7A}"/>
+    <hyperlink ref="F22" r:id="rId11" xr:uid="{42409FEA-675F-3D43-B4BD-26E53301D993}"/>
+    <hyperlink ref="F24" r:id="rId12" xr:uid="{69EBE3C3-36AB-8A4C-91DB-AF88468D56E7}"/>
+    <hyperlink ref="F42" r:id="rId13" xr:uid="{84AEF88F-5A4E-864F-994E-8C9F7641B755}"/>
+    <hyperlink ref="F44" r:id="rId14" xr:uid="{90E71B72-6982-4E44-8FED-4C4916B723A3}"/>
+    <hyperlink ref="F47" r:id="rId15" xr:uid="{4359297F-AEEE-4B46-9FEF-CEE9997B7A9F}"/>
+    <hyperlink ref="F48" r:id="rId16" xr:uid="{96339004-AC21-B548-B708-E07D28404349}"/>
+    <hyperlink ref="F49" r:id="rId17" xr:uid="{8040D300-D4F0-424A-8F90-44DCB9B07F77}"/>
+    <hyperlink ref="F50" r:id="rId18" xr:uid="{BC3B711C-262D-E243-BB49-05F5AA070A0A}"/>
+    <hyperlink ref="F51" r:id="rId19" xr:uid="{B3D5729A-353E-C640-9D88-6705E191C892}"/>
+    <hyperlink ref="F56" r:id="rId20" xr:uid="{BB4E426A-CA4F-B64E-8815-33C49CC7B096}"/>
+    <hyperlink ref="F57" r:id="rId21" xr:uid="{27C73C3C-2171-1E4F-91DB-46E36EE91083}"/>
+    <hyperlink ref="F61" r:id="rId22" xr:uid="{B8DF170A-C9DD-FD4A-92D4-6031155E97B6}"/>
+    <hyperlink ref="F64" r:id="rId23" xr:uid="{D0C20264-D0E0-5F46-ADDE-02B1C02AE71F}"/>
+    <hyperlink ref="F67" r:id="rId24" xr:uid="{0F6636A3-D63D-B843-8DAB-E9ED79334D18}"/>
+    <hyperlink ref="F73" r:id="rId25" xr:uid="{E64266C5-E148-EF43-8F27-24C67C3C9DE4}"/>
+    <hyperlink ref="F11" r:id="rId26" xr:uid="{B600A1C3-1F94-7F41-89E5-24A8B81C4C74}"/>
+    <hyperlink ref="F13" r:id="rId27" xr:uid="{A80EC60E-1199-044F-B880-34554DD3C46F}"/>
+    <hyperlink ref="F14" r:id="rId28" xr:uid="{F60C3420-3049-1147-9E9C-F19999296CC9}"/>
+    <hyperlink ref="F15" r:id="rId29" xr:uid="{8CD4ADC6-5C14-0749-8AE2-E0B212E1718B}"/>
+    <hyperlink ref="F16" r:id="rId30" xr:uid="{FF3DCC83-9554-F240-92BA-04FB767CEECC}"/>
+    <hyperlink ref="F18" r:id="rId31" xr:uid="{BB845155-D32A-7040-9D0C-A37E48C996C9}"/>
+    <hyperlink ref="F19" r:id="rId32" xr:uid="{F257BC97-4AA0-0D40-8420-F9F768060581}"/>
+    <hyperlink ref="F12" r:id="rId33" xr:uid="{6CA11FFD-195E-9447-9158-2B62A00905F1}"/>
+    <hyperlink ref="F17" r:id="rId34" xr:uid="{1A4D9EF6-C9F6-5F44-A68E-E4EA20E5C95E}"/>
+    <hyperlink ref="F20" r:id="rId35" xr:uid="{3F0841B2-82D1-1A48-8132-C7A9B8676320}"/>
+    <hyperlink ref="F26" r:id="rId36" xr:uid="{11D99B92-8ED3-9044-A667-FEF89B55E813}"/>
+    <hyperlink ref="F27" r:id="rId37" xr:uid="{067208F6-87E4-004F-8B9D-EB23BBF84800}"/>
+    <hyperlink ref="F28" r:id="rId38" xr:uid="{526CC18C-9561-A54B-83F6-7E1EF11F6887}"/>
+    <hyperlink ref="F29" r:id="rId39" xr:uid="{57D484A0-D34F-6943-A8E3-909E65850BD9}"/>
+    <hyperlink ref="F30" r:id="rId40" xr:uid="{73895E83-0C74-BE46-BBE6-AFAC638CFC10}"/>
+    <hyperlink ref="F32" r:id="rId41" xr:uid="{0737E7F4-48F5-2D48-97E3-678F4B289828}"/>
+    <hyperlink ref="F33" r:id="rId42" xr:uid="{7A75AA20-5361-CE47-9C53-32B619BF7C43}"/>
+    <hyperlink ref="F34" r:id="rId43" xr:uid="{5A8611FD-2396-3B41-95D7-0C7BA7A9BE93}"/>
+    <hyperlink ref="F35" r:id="rId44" xr:uid="{1DEF5207-427F-A04C-AD87-99F3BED7095B}"/>
+    <hyperlink ref="F36" r:id="rId45" xr:uid="{A40D70D2-193A-FC42-ACE9-AA1EF76A2156}"/>
+    <hyperlink ref="H37" r:id="rId46" xr:uid="{CF67E41B-4E8A-8440-B45E-A73AC759353E}"/>
+    <hyperlink ref="H2" r:id="rId47" xr:uid="{7B3E8262-F056-3D46-864C-7388A9E4F074}"/>
+    <hyperlink ref="F37" r:id="rId48" xr:uid="{2A021707-2BEC-B443-BA4E-8BBD2A136A11}"/>
+    <hyperlink ref="F38" r:id="rId49" xr:uid="{53EA7AA0-9D35-F349-917B-4B3E6974C7CC}"/>
+    <hyperlink ref="F39" r:id="rId50" xr:uid="{2420FCB7-E581-004E-ABC1-346FD10262DA}"/>
+    <hyperlink ref="F41" r:id="rId51" xr:uid="{2C1FFD97-0E54-0947-BEB1-4EBC77BE13A4}"/>
+    <hyperlink ref="F45" r:id="rId52" xr:uid="{2A89DF1E-2561-0E46-A662-13D4AC1F3B7C}"/>
+    <hyperlink ref="F53" r:id="rId53" xr:uid="{B7389EAA-E0F2-9348-9906-8BCF35117F05}"/>
+    <hyperlink ref="F46" r:id="rId54" xr:uid="{EB24582F-BD85-FF4D-BDCA-1532C9C52C7E}"/>
+    <hyperlink ref="F54" r:id="rId55" xr:uid="{2F8E2E56-9D05-4A46-B2EC-3FDDC547EF7D}"/>
+    <hyperlink ref="F55" r:id="rId56" xr:uid="{0CADC6AB-6FC6-F94C-BB6A-B7F74891CF98}"/>
+    <hyperlink ref="F58" r:id="rId57" xr:uid="{CBB32283-3D06-FF41-932F-C12C70A842D8}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{81C646C8-280C-D744-9FA9-F5A306D150B3}"/>
+    <hyperlink ref="F60" r:id="rId59" xr:uid="{C09B11CC-21DB-FB4D-BB9B-E9D27825CF4C}"/>
+    <hyperlink ref="F63" r:id="rId60" xr:uid="{FA17CAAB-AB7E-9941-B740-30046C2CFF13}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>